--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,11 +97,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF444444"/>
-      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,9 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +409,7 @@
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -438,7 +432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -484,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -507,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -530,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -553,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -576,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,9 +592,6 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
